--- a/MauchuanExcel/mauchuan_xuatkhole.xlsx
+++ b/MauchuanExcel/mauchuan_xuatkhole.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Ma_QD40</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>TEN_THUOC</t>
   </si>
@@ -33,38 +30,81 @@
     <t>GIA_BAN</t>
   </si>
   <si>
-    <t>gia_bhyt</t>
-  </si>
-  <si>
     <t>SO_LO</t>
   </si>
   <si>
-    <t>L01</t>
-  </si>
-  <si>
-    <t>ngay_hethan</t>
-  </si>
-  <si>
-    <t>gia_nhap</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>MORIHEPAMIN INFUSION 200ML</t>
-  </si>
-  <si>
-    <t>túi</t>
+    <t>ma_thuoc</t>
+  </si>
+  <si>
+    <t>NGAY_HETHAN</t>
+  </si>
+  <si>
+    <t>GIA_NHAP</t>
+  </si>
+  <si>
+    <t>CHIET_KHAU</t>
+  </si>
+  <si>
+    <t>THANH_TIEN</t>
+  </si>
+  <si>
+    <t>THANG_DU</t>
+  </si>
+  <si>
+    <t>gia_BHYT</t>
+  </si>
+  <si>
+    <t>gia_phuthu_dungtuyen</t>
+  </si>
+  <si>
+    <t>gia_phuthu_traituyen</t>
+  </si>
+  <si>
+    <t>so_dky</t>
+  </si>
+  <si>
+    <t>so_qdinhthau</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>Bupivacaine WPW Spinal 0,5% Heavy</t>
+  </si>
+  <si>
+    <t>Ống</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>Marcain</t>
+  </si>
+  <si>
+    <t>Lọ</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcain 0.5% inj. </t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etomidate-Lipuro Inj </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +115,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -93,21 +126,72 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,39 +199,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 10" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2"/>
+    <cellStyle name="Normal 12" xfId="3"/>
+    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 8" xfId="5"/>
+    <cellStyle name="Normal 8 2" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,82 +593,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:16" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
+      <c r="O1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9">
-        <v>106209</v>
-      </c>
-      <c r="F2" s="5">
-        <v>108000</v>
-      </c>
-      <c r="G2" s="5">
-        <v>108000</v>
-      </c>
-      <c r="H2" s="10">
-        <v>42657</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43032</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>37800</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <f xml:space="preserve"> PRODUCT(E2,F2)</f>
+        <v>3780000</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>37800</v>
+      </c>
+      <c r="K2" s="6">
+        <v>37800</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12">
+        <v>43032</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="F3" s="9">
+        <v>49020</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H5" si="0" xml:space="preserve"> PRODUCT(E3,F3)</f>
+        <v>4902000</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>49020</v>
+      </c>
+      <c r="K3" s="9">
+        <v>49020</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43032</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6">
+        <v>43138</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="0"/>
+        <v>4313800</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>43138</v>
+      </c>
+      <c r="K4" s="6">
+        <v>43138</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43032</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>120000</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>120000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>120000</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
